--- a/examples/normative_agreement.xlsx
+++ b/examples/normative_agreement.xlsx
@@ -15,12 +15,16 @@
     <sheet name="Turkey" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Haiti" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="China" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Thailand" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="India" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Indonesia" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Sri Lanka" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="705">
   <si>
     <t xml:space="preserve">source_country</t>
   </si>
@@ -1877,6 +1881,264 @@
   </si>
   <si>
     <t xml:space="preserve">Antonio Milososki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-29, 2005-01-07, 2005-01-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Affairs China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somnath Chatterjee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Émile Lahoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helen Clark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pak Pong Chu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl XVI Gustaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Affairs Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeb Bush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-02, 2005-02-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Morshed Khan, Bangladesh Rifles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-26, 2005-01-03, 2005-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khaleda Zia, M Morshed Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iranian Oil Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-07, 2005-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakagawa Shoichi, Tanigaki Sadakazu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heizo Takenaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-27, 2004-12-29, 2005-01-03, 2005-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaukat Aziz, Government Pakistan, Khurshid M Kasuri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-26, 2004-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-30, 2004-12-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head of Government South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandrika Kumaratunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-23, 2005-01-11, 2005-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayalalithaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-02-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Authorities  Officials Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretary of State for Business Innovation and Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David C Mulford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-16, 2005-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colin Powell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Van Khai, President Luong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-06, 2005-01-05, 2005-01-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Downer, John Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-03-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-01, 2005-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-03-29, 2005-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobutaka Machimura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-03-07, 2005-03-08, 2005-03-11, 2005-03-12, 2005-03-22, 2005-03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bin Ahmad Badawi, Minister Albar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-03-29, 2005-03-30, 2005-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimorLeste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-16, 2005-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kay Gusmao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-27, 2005-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President Luong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joice Mujuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li Zhauxing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Affairs India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TreasuryFinance Ministry India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Solheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-16, 2004-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Affairs Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President Luong, Phan Van Khai</t>
   </si>
 </sst>
 </file>
@@ -2284,6 +2546,1084 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>628</v>
+      </c>
+      <c r="D9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>630</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>631</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>633</v>
+      </c>
+      <c r="D12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>567</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>635</v>
+      </c>
+      <c r="D13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>630</v>
+      </c>
+      <c r="D14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>638</v>
+      </c>
+      <c r="D15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>643</v>
+      </c>
+      <c r="D4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>645</v>
+      </c>
+      <c r="D5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>620</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>628</v>
+      </c>
+      <c r="D9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>650</v>
+      </c>
+      <c r="D11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>652</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>653</v>
+      </c>
+      <c r="D13" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>657</v>
+      </c>
+      <c r="D15" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>659</v>
+      </c>
+      <c r="D16" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>660</v>
+      </c>
+      <c r="D17" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>662</v>
+      </c>
+      <c r="D18" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>655</v>
+      </c>
+      <c r="D19" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>665</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>655</v>
+      </c>
+      <c r="D21" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>638</v>
+      </c>
+      <c r="D22" t="s">
+        <v>667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>673</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>674</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" t="s">
+        <v>677</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>678</v>
+      </c>
+      <c r="D11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>680</v>
+      </c>
+      <c r="D12" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>682</v>
+      </c>
+      <c r="D13" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>675</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>683</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>620</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>684</v>
+      </c>
+      <c r="D18" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>683</v>
+      </c>
+      <c r="D19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>685</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>686</v>
+      </c>
+      <c r="D20" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>688</v>
+      </c>
+      <c r="D21" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>690</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>691</v>
+      </c>
+      <c r="D22" t="s">
+        <v>692</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>659</v>
+      </c>
+      <c r="D3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>619</v>
+      </c>
+      <c r="D6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>696</v>
+      </c>
+      <c r="B8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>628</v>
+      </c>
+      <c r="D9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>699</v>
+      </c>
+      <c r="D10" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>701</v>
+      </c>
+      <c r="D11" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>698</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>702</v>
+      </c>
+      <c r="D12" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>620</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>638</v>
+      </c>
+      <c r="D14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
